--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricsi\GitHub\gutenberg-dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF273541-3B6E-460C-953E-5C225E615E82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C19DA-F8F9-451E-8594-3CBBB5096734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7710" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialog_length" sheetId="1" r:id="rId1"/>
     <sheet name="dialogs per file" sheetId="2" r:id="rId2"/>
+    <sheet name="languages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="languages" localSheetId="2">languages!$A$1:$B$90</definedName>
     <definedName name="statistics" localSheetId="1">'dialogs per file'!$A$1:$C$217</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +37,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{79867FBC-AFA3-4B0F-846A-3C0F180E9185}" name="statistics" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{EB6158C1-A574-4796-9834-71676B1D15D6}" name="languages" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\ricsi\GitHub\gutenberg-dialog\languages.txt" decimal="," thousands=" " tab="0" delimiter=":">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{79867FBC-AFA3-4B0F-846A-3C0F180E9185}" name="statistics" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\ricsi\GitHub\gutenberg-dialog\statistics.txt" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="3">
         <textField type="text"/>
@@ -48,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>dialog_space</t>
   </si>
@@ -705,6 +715,276 @@
   </si>
   <si>
     <t>9489-8.txt</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Friulian</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Spanish/English</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Esperanto</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>Dutch and Flemish</t>
+  </si>
+  <si>
+    <t>As Spoken By The Oogashik, Egashik, Egegik,</t>
+  </si>
+  <si>
+    <t>French and English</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>English and Maori</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>English/Latin</t>
+  </si>
+  <si>
+    <t>English, Latin, Spanish, and Italian</t>
+  </si>
+  <si>
+    <t>***CAREFUL***</t>
+  </si>
+  <si>
+    <t>French/English</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>English and Spanish</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>English, Middle (1100-1500)</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Nahuatl</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>German, with English comments</t>
+  </si>
+  <si>
+    <t>Arapaho</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Frisian</t>
+  </si>
+  <si>
+    <t>Italian and English</t>
+  </si>
+  <si>
+    <t>Latin and English</t>
+  </si>
+  <si>
+    <t>English and Old English</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>Kashubian and Polish</t>
+  </si>
+  <si>
+    <t>Englishs</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>English with French</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>French [This is the 8-bit unaccented version]</t>
+  </si>
+  <si>
+    <t>English, with Italian and French</t>
+  </si>
+  <si>
+    <t>Ilocano</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>English / French</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>German and Catalan</t>
+  </si>
+  <si>
+    <t>Spanish and Tagalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German</t>
+  </si>
+  <si>
+    <t>Cebuano</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>Galician</t>
+  </si>
+  <si>
+    <t>English and French</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>French and Latin</t>
+  </si>
+  <si>
+    <t>Gascon</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>Spanish with English</t>
+  </si>
+  <si>
+    <t>Venetian</t>
+  </si>
+  <si>
+    <t>English - Latin</t>
+  </si>
+  <si>
+    <t>Czech, Esperanto</t>
+  </si>
+  <si>
+    <t>Iloko, Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English</t>
+  </si>
+  <si>
+    <t>French / Onondaga / English</t>
+  </si>
+  <si>
+    <t>Middle English</t>
+  </si>
+  <si>
+    <t>Calo</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Quiche</t>
+  </si>
+  <si>
+    <t>Chinese, English</t>
+  </si>
+  <si>
+    <t>Latin, German</t>
+  </si>
+  <si>
+    <t>Portuguese &amp; French</t>
+  </si>
+  <si>
+    <t>Spanish / English</t>
+  </si>
+  <si>
+    <t>Gaelic</t>
   </si>
 </sst>
 </file>
@@ -2811,6 +3091,385 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>languages!$A$1:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>French</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Finnish</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>German</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dutch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Italian</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spanish</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Portuguese</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chinese</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Greek</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hungarian</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Swedish</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Esperanto</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Latin</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Danish</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tagalog</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Catalan</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Norwegian</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Japanese</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Polish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>languages!$B$1:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D88-4B72-8EF6-BFC5E2342468}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="252868816"/>
+        <c:axId val="260496360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="252868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260496360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="260496360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252868816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2891,6 +3550,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3904,6 +4603,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4007,8 +5209,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50346</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E922A83E-F6A6-4E27-9D99-3F4FA7777818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="statistics" connectionId="1" xr16:uid="{7308B85C-C021-426E-B79D-A093BD335D41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="statistics" connectionId="2" xr16:uid="{7308B85C-C021-426E-B79D-A093BD335D41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="languages" connectionId="1" xr16:uid="{7918B627-B471-4F65-B624-5AFBEA8FA4E7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4418,7 +5665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E286E-2E0D-482D-AFBC-246E1C8FAF69}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
@@ -6823,4 +8070,747 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED75800-8700-4712-8B4B-BC89FC13F27D}">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="38.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1">
+        <v>24295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B90">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>